--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.1081099367632281</v>
+        <v>0.1074906481627241</v>
       </c>
       <c r="D2">
-        <v>0.9139214032330853</v>
+        <v>0.9153740072163092</v>
       </c>
       <c r="E2">
         <v>12.67332760566089</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.6318709613967751</v>
+        <v>-0.6264229408834185</v>
       </c>
       <c r="D3">
-        <v>0.5275572223244236</v>
+        <v>0.5374838426647335</v>
       </c>
       <c r="E3">
         <v>12.67332760566089</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.677991606594557</v>
+        <v>-2.5650094385363</v>
       </c>
       <c r="D4">
-        <v>0.007478714142656884</v>
+        <v>0.01765955831445232</v>
       </c>
       <c r="E4">
         <v>12.67332760566089</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.417224039707748</v>
+        <v>-1.140051697774375</v>
       </c>
       <c r="D5">
-        <v>0.156602965832503</v>
+        <v>0.2665250379685453</v>
       </c>
       <c r="E5">
         <v>12.67332760566089</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.6453987603544405</v>
+        <v>-0.7939661827392596</v>
       </c>
       <c r="D6">
-        <v>0.5187569904853535</v>
+        <v>0.4356960541109605</v>
       </c>
       <c r="E6">
         <v>12.51628936129659</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.953811549915656</v>
+        <v>-1.95594457460606</v>
       </c>
       <c r="D7">
-        <v>0.05088934620213204</v>
+        <v>0.06328770853159993</v>
       </c>
       <c r="E7">
         <v>12.51628936129659</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.291402635297329</v>
+        <v>-1.419506315513625</v>
       </c>
       <c r="D8">
-        <v>0.1967418524543612</v>
+        <v>0.1697664104934751</v>
       </c>
       <c r="E8">
         <v>12.51628936129659</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.218579166717284</v>
+        <v>-1.497717579089876</v>
       </c>
       <c r="D9">
-        <v>0.2231751505217052</v>
+        <v>0.1484181780557379</v>
       </c>
       <c r="E9">
         <v>13.58786268585703</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.8158326264426927</v>
+        <v>-1.130700962789817</v>
       </c>
       <c r="D10">
-        <v>0.4147115909842691</v>
+        <v>0.270357360651881</v>
       </c>
       <c r="E10">
         <v>13.58786268585703</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.5259324248614455</v>
+        <v>0.4189060076883179</v>
       </c>
       <c r="D11">
-        <v>0.5990046152730502</v>
+        <v>0.6793464733782986</v>
       </c>
       <c r="E11">
         <v>15.6906340421522</v>
